--- a/data/financial_statements/sofp/LW.xlsx
+++ b/data/financial_statements/sofp/LW.xlsx
@@ -14,9 +14,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>2022-11-30</t>
+  </si>
+  <si>
+    <t>2022-08-31</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>2021-08-31</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>2020-05-31</t>
+  </si>
+  <si>
+    <t>2020-02-29</t>
+  </si>
+  <si>
+    <t>2019-11-30</t>
+  </si>
+  <si>
+    <t>2019-08-31</t>
+  </si>
+  <si>
+    <t>2019-05-31</t>
+  </si>
+  <si>
+    <t>2019-02-28</t>
+  </si>
+  <si>
+    <t>2018-11-30</t>
+  </si>
+  <si>
+    <t>2018-08-31</t>
+  </si>
+  <si>
+    <t>2018-05-31</t>
+  </si>
+  <si>
+    <t>2018-02-28</t>
+  </si>
+  <si>
+    <t>2017-11-30</t>
+  </si>
+  <si>
+    <t>2017-08-31</t>
+  </si>
+  <si>
+    <t>2017-05-31</t>
+  </si>
+  <si>
+    <t>2017-02-28</t>
+  </si>
+  <si>
+    <t>2016-11-30</t>
+  </si>
+  <si>
+    <t>2016-08-31</t>
+  </si>
+  <si>
+    <t>2016-05-31</t>
+  </si>
+  <si>
+    <t>2016-02-29</t>
+  </si>
+  <si>
+    <t>2015-11-30</t>
+  </si>
+  <si>
+    <t>2015-05-31</t>
+  </si>
+  <si>
+    <t>2014-05-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -140,9 +233,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -195,12 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -505,123 +592,123 @@
   <sheetData>
     <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44895</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44804</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44712</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44620</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44530</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44439</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44347</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44255</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44165</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44074</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43982</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43890</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43799</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43708</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43616</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43524</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43434</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43343</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43251</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43159</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43069</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42978</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42886</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42794</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42704</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42613</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42521</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42429</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42338</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42155</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>41790</v>
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B2">
         <v>419400000</v>
       </c>
       <c r="C2">
-        <v>485000000</v>
+        <v>485300000</v>
       </c>
       <c r="D2">
         <v>525000000</v>
       </c>
       <c r="E2">
-        <v>429000000</v>
+        <v>428600000</v>
       </c>
       <c r="F2">
-        <v>622000000</v>
+        <v>621900000</v>
       </c>
       <c r="G2">
-        <v>790000000</v>
+        <v>789700000</v>
       </c>
       <c r="H2">
         <v>783500000</v>
@@ -685,26 +772,26 @@
       </c>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B3">
         <v>508900000</v>
       </c>
       <c r="C3">
-        <v>450000000</v>
+        <v>449500000</v>
       </c>
       <c r="D3">
-        <v>447000000</v>
+        <v>447300000</v>
       </c>
       <c r="E3">
-        <v>431000000</v>
+        <v>430600000</v>
       </c>
       <c r="F3">
-        <v>423000000</v>
+        <v>423200000</v>
       </c>
       <c r="G3">
-        <v>401000000</v>
+        <v>401300000</v>
       </c>
       <c r="H3">
         <v>366900000</v>
@@ -768,26 +855,26 @@
       </c>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B4">
         <v>822100000</v>
       </c>
       <c r="C4">
-        <v>636000000</v>
+        <v>635500000</v>
       </c>
       <c r="D4">
-        <v>603000000</v>
+        <v>574400000</v>
       </c>
       <c r="E4">
-        <v>635000000</v>
+        <v>634500000</v>
       </c>
       <c r="F4">
-        <v>614000000</v>
+        <v>613900000</v>
       </c>
       <c r="G4">
-        <v>469000000</v>
+        <v>469200000</v>
       </c>
       <c r="H4">
         <v>513500000</v>
@@ -851,8 +938,11 @@
       </c>
     </row>
     <row r="5" spans="1:32">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>51000000</v>
       </c>
       <c r="C5">
         <v>60000000</v>
@@ -892,23 +982,23 @@
       </c>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B6">
         <v>1801100000</v>
       </c>
       <c r="C6">
-        <v>1630000000</v>
+        <v>1630200000</v>
       </c>
       <c r="D6">
-        <v>1660000000</v>
+        <v>1659600000</v>
       </c>
       <c r="E6">
-        <v>1611000000</v>
+        <v>1610700000</v>
       </c>
       <c r="F6">
-        <v>1718000000</v>
+        <v>1717800000</v>
       </c>
       <c r="G6">
         <v>1735000000</v>
@@ -975,26 +1065,26 @@
       </c>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B7">
         <v>1758200000</v>
       </c>
       <c r="C7">
-        <v>1803000000</v>
+        <v>1690900000</v>
       </c>
       <c r="D7">
-        <v>1698000000</v>
+        <v>1579200000</v>
       </c>
       <c r="E7">
-        <v>1684000000</v>
+        <v>1556100000</v>
       </c>
       <c r="F7">
-        <v>1704000000</v>
+        <v>1568000000</v>
       </c>
       <c r="G7">
-        <v>1701000000</v>
+        <v>1565700000</v>
       </c>
       <c r="H7">
         <v>1524000000</v>
@@ -1058,26 +1148,26 @@
       </c>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B8">
         <v>263700000</v>
       </c>
       <c r="C8">
-        <v>373000000</v>
+        <v>372500000</v>
       </c>
       <c r="D8">
-        <v>257000000</v>
+        <v>257400000</v>
       </c>
       <c r="E8">
-        <v>313000000</v>
+        <v>312800000</v>
       </c>
       <c r="F8">
-        <v>295000000</v>
+        <v>294700000</v>
       </c>
       <c r="G8">
-        <v>299000000</v>
+        <v>298800000</v>
       </c>
       <c r="H8">
         <v>310200000</v>
@@ -1138,8 +1228,8 @@
       </c>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B9">
         <v>379500000</v>
@@ -1148,16 +1238,16 @@
         <v>385000000</v>
       </c>
       <c r="D9">
-        <v>352000000</v>
+        <v>351700000</v>
       </c>
       <c r="E9">
-        <v>356000000</v>
+        <v>356300000</v>
       </c>
       <c r="F9">
-        <v>354000000</v>
+        <v>353600000</v>
       </c>
       <c r="G9">
-        <v>359000000</v>
+        <v>359300000</v>
       </c>
       <c r="H9">
         <v>371400000</v>
@@ -1233,26 +1323,26 @@
       </c>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B10">
         <v>253200000</v>
       </c>
       <c r="C10">
-        <v>219000000</v>
+        <v>218800000</v>
       </c>
       <c r="D10">
-        <v>150000000</v>
+        <v>172900000</v>
       </c>
       <c r="E10">
-        <v>137000000</v>
+        <v>136700000</v>
       </c>
       <c r="F10">
-        <v>85000000</v>
+        <v>85400000</v>
       </c>
       <c r="G10">
-        <v>82000000</v>
+        <v>82400000</v>
       </c>
       <c r="H10">
         <v>80400000</v>
@@ -1316,8 +1406,8 @@
       </c>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B11">
         <v>2768500000</v>
@@ -1399,26 +1489,26 @@
       </c>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B12">
         <v>4569600000</v>
       </c>
       <c r="C12">
-        <v>4410000000</v>
+        <v>4409700000</v>
       </c>
       <c r="D12">
-        <v>4140000000</v>
+        <v>4139800000</v>
       </c>
       <c r="E12">
-        <v>4101000000</v>
+        <v>4100800000</v>
       </c>
       <c r="F12">
-        <v>4156000000</v>
+        <v>4155600000</v>
       </c>
       <c r="G12">
-        <v>4176000000</v>
+        <v>4176300000</v>
       </c>
       <c r="H12">
         <v>4209400000</v>
@@ -1497,8 +1587,8 @@
       </c>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="Y13">
         <v>92500000</v>
@@ -1511,26 +1601,26 @@
       </c>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B14">
         <v>580600000</v>
       </c>
       <c r="C14">
-        <v>398000000</v>
+        <v>462700000</v>
       </c>
       <c r="D14">
-        <v>364000000</v>
+        <v>402600000</v>
       </c>
       <c r="E14">
-        <v>334000000</v>
+        <v>349300000</v>
       </c>
       <c r="F14">
-        <v>431000000</v>
+        <v>445400000</v>
       </c>
       <c r="G14">
-        <v>346000000</v>
+        <v>380400000</v>
       </c>
       <c r="H14">
         <v>359300000</v>
@@ -1594,8 +1684,8 @@
       </c>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="Q15">
         <v>221700000</v>
@@ -1608,26 +1698,26 @@
       </c>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B16">
         <v>41200000</v>
       </c>
       <c r="C16">
-        <v>64000000</v>
+        <v>41300000</v>
       </c>
       <c r="D16">
-        <v>55000000</v>
+        <v>32200000</v>
       </c>
       <c r="E16">
-        <v>55000000</v>
+        <v>32200000</v>
       </c>
       <c r="F16">
-        <v>59000000</v>
+        <v>32200000</v>
       </c>
       <c r="G16">
-        <v>60000000</v>
+        <v>32000000</v>
       </c>
       <c r="H16">
         <v>32000000</v>
@@ -1691,8 +1781,8 @@
       </c>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -1711,8 +1801,8 @@
       </c>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="AA18">
         <v>0</v>
@@ -1731,8 +1821,11 @@
       </c>
     </row>
     <row r="19" spans="1:32">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19">
+        <v>321000000</v>
       </c>
       <c r="C19">
         <v>282000000</v>
@@ -1769,20 +1862,20 @@
       </c>
     </row>
     <row r="20" spans="1:32">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B20">
         <v>918500000</v>
       </c>
       <c r="C20">
-        <v>780000000</v>
+        <v>780300000</v>
       </c>
       <c r="D20">
-        <v>699000000</v>
+        <v>699100000</v>
       </c>
       <c r="E20">
-        <v>613000000</v>
+        <v>612900000</v>
       </c>
       <c r="F20">
         <v>693000000</v>
@@ -1852,26 +1945,26 @@
       </c>
     </row>
     <row r="21" spans="1:32">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B21">
         <v>2701100000</v>
       </c>
       <c r="C21">
-        <v>2700000000</v>
+        <v>2700100000</v>
       </c>
       <c r="D21">
-        <v>2801000000</v>
+        <v>2695800000</v>
       </c>
       <c r="E21">
         <v>2697000000</v>
       </c>
       <c r="F21">
-        <v>2692000000</v>
+        <v>2692100000</v>
       </c>
       <c r="G21">
-        <v>2699000000</v>
+        <v>2698600000</v>
       </c>
       <c r="H21">
         <v>2705400000</v>
@@ -1935,8 +2028,8 @@
       </c>
     </row>
     <row r="22" spans="1:32">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="AA22">
         <v>0</v>
@@ -1955,26 +2048,26 @@
       </c>
     </row>
     <row r="23" spans="1:32">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B23">
         <v>177700000</v>
       </c>
       <c r="C23">
-        <v>219000000</v>
+        <v>218700000</v>
       </c>
       <c r="D23">
-        <v>170000000</v>
+        <v>172500000</v>
       </c>
       <c r="E23">
-        <v>172000000</v>
+        <v>171900000</v>
       </c>
       <c r="F23">
-        <v>161000000</v>
+        <v>161400000</v>
       </c>
       <c r="G23">
-        <v>160000000</v>
+        <v>159700000</v>
       </c>
       <c r="H23">
         <v>159700000</v>
@@ -2035,8 +2128,8 @@
       </c>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="S24">
         <v>57200000</v>
@@ -2079,26 +2172,26 @@
       </c>
     </row>
     <row r="25" spans="1:32">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B25">
         <v>199300000</v>
       </c>
       <c r="C25">
-        <v>201000000</v>
+        <v>200600000</v>
       </c>
       <c r="D25">
-        <v>107000000</v>
+        <v>211900000</v>
       </c>
       <c r="E25">
-        <v>227000000</v>
+        <v>226700000</v>
       </c>
       <c r="F25">
-        <v>244000000</v>
+        <v>243900000</v>
       </c>
       <c r="G25">
-        <v>241000000</v>
+        <v>240600000</v>
       </c>
       <c r="H25">
         <v>245500000</v>
@@ -2162,8 +2255,8 @@
       </c>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B26">
         <v>3078100000</v>
@@ -2245,26 +2338,26 @@
       </c>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B27">
         <v>3996600000</v>
       </c>
       <c r="C27">
-        <v>3900000000</v>
+        <v>3899700000</v>
       </c>
       <c r="D27">
-        <v>3779000000</v>
+        <v>3779300000</v>
       </c>
       <c r="E27">
-        <v>3709000000</v>
+        <v>3708500000</v>
       </c>
       <c r="F27">
-        <v>3790000000</v>
+        <v>3790400000</v>
       </c>
       <c r="G27">
-        <v>3749000000</v>
+        <v>3748900000</v>
       </c>
       <c r="H27">
         <v>3728800000</v>
@@ -2340,8 +2433,8 @@
       </c>
     </row>
     <row r="28" spans="1:32">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B28">
         <v>-785500000</v>
@@ -2435,8 +2528,8 @@
       </c>
     </row>
     <row r="29" spans="1:32">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="AA29">
         <v>0</v>
@@ -2455,14 +2548,14 @@
       </c>
     </row>
     <row r="30" spans="1:32">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B30">
         <v>148300000</v>
       </c>
       <c r="C30">
-        <v>148000000</v>
+        <v>148300000</v>
       </c>
       <c r="D30">
         <v>148000000</v>
@@ -2550,23 +2643,23 @@
       </c>
     </row>
     <row r="31" spans="1:32">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B31">
         <v>1569200000</v>
       </c>
       <c r="C31">
-        <v>1502000000</v>
+        <v>1501800000</v>
       </c>
       <c r="D31">
-        <v>1306000000</v>
+        <v>1305500000</v>
       </c>
       <c r="E31">
-        <v>1309000000</v>
+        <v>1309100000</v>
       </c>
       <c r="F31">
-        <v>1238000000</v>
+        <v>1238300000</v>
       </c>
       <c r="G31">
         <v>1240000000</v>
@@ -2630,8 +2723,8 @@
       </c>
     </row>
     <row r="32" spans="1:32">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B32">
         <v>297500000</v>
@@ -2722,8 +2815,8 @@
       </c>
     </row>
     <row r="33" spans="1:32">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="AA33">
         <v>0</v>
@@ -2742,8 +2835,8 @@
       </c>
     </row>
     <row r="34" spans="1:32">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B34">
         <v>572999900</v>
@@ -2752,16 +2845,16 @@
         <v>510000000</v>
       </c>
       <c r="D34">
-        <v>361000000</v>
+        <v>360500000</v>
       </c>
       <c r="E34">
-        <v>392000000</v>
+        <v>392300000</v>
       </c>
       <c r="F34">
-        <v>365000000</v>
+        <v>365200100</v>
       </c>
       <c r="G34">
-        <v>427000000</v>
+        <v>427400000</v>
       </c>
       <c r="H34">
         <v>480600000</v>
@@ -2825,8 +2918,8 @@
       </c>
     </row>
     <row r="35" spans="1:32">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B35">
         <v>573000000</v>
@@ -2835,16 +2928,16 @@
         <v>510000000</v>
       </c>
       <c r="D35">
-        <v>361000000</v>
+        <v>360500000</v>
       </c>
       <c r="E35">
-        <v>392000000</v>
+        <v>392300000</v>
       </c>
       <c r="F35">
-        <v>365000000</v>
+        <v>365200000</v>
       </c>
       <c r="G35">
-        <v>427000000</v>
+        <v>427400000</v>
       </c>
       <c r="H35">
         <v>480600000</v>
@@ -2920,8 +3013,8 @@
       </c>
     </row>
     <row r="36" spans="1:32">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B36">
         <v>4569600000</v>
@@ -3015,8 +3108,8 @@
       </c>
     </row>
     <row r="37" spans="1:32">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B37">
         <v>143870000</v>
@@ -3095,8 +3188,8 @@
       </c>
     </row>
     <row r="38" spans="1:32">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B38">
         <v>193500000</v>
@@ -3178,26 +3271,26 @@
       </c>
     </row>
     <row r="39" spans="1:32">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B39">
         <v>2322900000</v>
       </c>
       <c r="C39">
-        <v>2279000000</v>
+        <v>2256100000</v>
       </c>
       <c r="D39">
-        <v>2331000000</v>
+        <v>2203000000</v>
       </c>
       <c r="E39">
-        <v>2323000000</v>
+        <v>2300600000</v>
       </c>
       <c r="F39">
-        <v>2129000000</v>
+        <v>2102400000</v>
       </c>
       <c r="G39">
-        <v>1969000000</v>
+        <v>1940900000</v>
       </c>
       <c r="H39">
         <v>1953900000</v>
@@ -3261,26 +3354,26 @@
       </c>
     </row>
     <row r="40" spans="1:32">
-      <c r="A40" t="s">
-        <v>39</v>
+      <c r="A40" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B40">
         <v>2742300000</v>
       </c>
       <c r="C40">
-        <v>2764000000</v>
+        <v>2741400000</v>
       </c>
       <c r="D40">
-        <v>2856000000</v>
+        <v>2728000000</v>
       </c>
       <c r="E40">
-        <v>2752000000</v>
+        <v>2729200000</v>
       </c>
       <c r="F40">
-        <v>2751000000</v>
+        <v>2724300000</v>
       </c>
       <c r="G40">
-        <v>2759000000</v>
+        <v>2730600000</v>
       </c>
       <c r="H40">
         <v>2737400000</v>
